--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.60286033333333</v>
+        <v>33.84781966666667</v>
       </c>
       <c r="H2">
-        <v>115.808581</v>
+        <v>101.543459</v>
       </c>
       <c r="I2">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707165</v>
       </c>
       <c r="J2">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>304.1737729176619</v>
+        <v>16.55345672968822</v>
       </c>
       <c r="R2">
-        <v>2737.563956258957</v>
+        <v>148.981110567194</v>
       </c>
       <c r="S2">
-        <v>0.2644162989689944</v>
+        <v>0.2316779401122838</v>
       </c>
       <c r="T2">
-        <v>0.2644162989689945</v>
+        <v>0.2316779401122838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.60286033333333</v>
+        <v>33.84781966666667</v>
       </c>
       <c r="H3">
-        <v>115.808581</v>
+        <v>101.543459</v>
       </c>
       <c r="I3">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707165</v>
       </c>
       <c r="J3">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707166</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>0.6959323660893333</v>
+        <v>0.6102084929506666</v>
       </c>
       <c r="R3">
-        <v>6.263391294804</v>
+        <v>5.491876436556</v>
       </c>
       <c r="S3">
-        <v>0.0006049695172893454</v>
+        <v>0.008540321758432758</v>
       </c>
       <c r="T3">
-        <v>0.0006049695172893454</v>
+        <v>0.008540321758432759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>223.367775</v>
       </c>
       <c r="I4">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="J4">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>586.6803503099084</v>
+        <v>36.41306721951666</v>
       </c>
       <c r="R4">
-        <v>5280.123152789175</v>
+        <v>327.71760497565</v>
       </c>
       <c r="S4">
-        <v>0.5099974446145669</v>
+        <v>0.5096279613585359</v>
       </c>
       <c r="T4">
-        <v>0.509997444614567</v>
+        <v>0.5096279613585359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>223.367775</v>
       </c>
       <c r="I5">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="J5">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>1.3422914159</v>
@@ -756,10 +756,10 @@
         <v>12.0806227431</v>
       </c>
       <c r="S5">
-        <v>0.001166845270470459</v>
+        <v>0.01878636682019285</v>
       </c>
       <c r="T5">
-        <v>0.001166845270470459</v>
+        <v>0.01878636682019285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>32.60069533333333</v>
       </c>
       <c r="H6">
-        <v>97.80208599999999</v>
+        <v>97.802086</v>
       </c>
       <c r="I6">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="J6">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>256.8793196579935</v>
+        <v>15.94354392314178</v>
       </c>
       <c r="R6">
-        <v>2311.913876921942</v>
+        <v>143.491895308276</v>
       </c>
       <c r="S6">
-        <v>0.2233035357852049</v>
+        <v>0.2231417567050225</v>
       </c>
       <c r="T6">
-        <v>0.223303535785205</v>
+        <v>0.2231417567050225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>32.60069533333333</v>
       </c>
       <c r="H7">
-        <v>97.80208599999999</v>
+        <v>97.802086</v>
       </c>
       <c r="I7">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="J7">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
-        <v>0.5877253354693331</v>
+        <v>0.5877253354693334</v>
       </c>
       <c r="R7">
-        <v>5.289528019223999</v>
+        <v>5.289528019224</v>
       </c>
       <c r="S7">
-        <v>0.0005109058434738185</v>
+        <v>0.00822565324553216</v>
       </c>
       <c r="T7">
-        <v>0.0005109058434738185</v>
+        <v>0.008225653245532162</v>
       </c>
     </row>
   </sheetData>
